--- a/data/trans_camb/P44D-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P44D-Clase-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-36.76667351700404</v>
+        <v>-37.24271708268078</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-45.84227186589827</v>
+        <v>-46.00075686031933</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-38.46548140531588</v>
+        <v>-39.45985822418587</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-49.84051783585019</v>
+        <v>-52.27358246969517</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-28.54605271661799</v>
+        <v>-29.86919841542161</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-37.60064872804483</v>
+        <v>-39.08720395310106</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>25.65426347961838</v>
+        <v>27.55381912137336</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.536490105919633</v>
+        <v>10.32087547408181</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>51.07210248978237</v>
+        <v>46.51011005888483</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.925153461670036</v>
+        <v>5.91360711971587</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>24.40507341592522</v>
+        <v>21.73318474407005</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.088417331798046</v>
+        <v>-1.646350034167568</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>-0.1102710088998481</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.4056385435335033</v>
+        <v>-0.4056385435335031</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.1394913346009125</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6459582786176274</v>
+        <v>-0.644246671279269</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.690506856558788</v>
+        <v>-0.7206136759780601</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.642287156653194</v>
+        <v>-0.6465534873235512</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.728178245170596</v>
+        <v>-0.7348632850799566</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5337542697776408</v>
+        <v>-0.5163972237120066</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6468081180537166</v>
+        <v>-0.6637547789776973</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.577763395916742</v>
+        <v>1.986364380195998</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6058047948735814</v>
+        <v>0.7044893018062234</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.499278675687734</v>
+        <v>2.141623431857498</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4208001964907005</v>
+        <v>0.3838686513677624</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.056427494036326</v>
+        <v>0.882883189851194</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1139246888981648</v>
+        <v>-0.06227390566561639</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-42.66001443192971</v>
+        <v>-42.24511812850803</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-50.87223715889472</v>
+        <v>-50.63483156655386</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-67.69873197135418</v>
+        <v>-72.90715525403334</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-69.85938800691284</v>
+        <v>-68.19950813468884</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-38.72062420362238</v>
+        <v>-37.80773080075802</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-47.28967901476954</v>
+        <v>-51.37429832686329</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>21.43713337158793</v>
+        <v>22.61741478298856</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.762330538342124</v>
+        <v>5.253646763746074</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>47.57125668457509</v>
+        <v>48.79440452255007</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.68716806538949</v>
+        <v>14.44651861524082</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>18.48445777711237</v>
+        <v>19.27943118659129</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.030459568181691</v>
+        <v>-3.169240989018815</v>
       </c>
     </row>
     <row r="13">
@@ -850,7 +850,7 @@
         <v>-0.2173691518440937</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.5458332935481537</v>
+        <v>-0.5458332935481538</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.41962483299191</v>
@@ -862,7 +862,7 @@
         <v>-0.2506355430248</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.5878751823934009</v>
+        <v>-0.587875182393401</v>
       </c>
     </row>
     <row r="14">
@@ -873,20 +873,20 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7039269463850385</v>
+        <v>-0.7266634614909551</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8013298262644103</v>
+        <v>-0.7955219482330296</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>-0.8771854174737851</v>
+        <v>-0.8831091436952014</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6824272368889727</v>
+        <v>-0.6793311065247134</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7736925786019724</v>
+        <v>-0.7886982524827815</v>
       </c>
     </row>
     <row r="15">
@@ -897,18 +897,18 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.169533937672477</v>
+        <v>1.180018688523481</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2157547733405142</v>
+        <v>0.4080739387580183</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>1.013102530300705</v>
+        <v>0.9223467862114604</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.04443534907448365</v>
+        <v>-0.134877140450317</v>
       </c>
     </row>
     <row r="16">
@@ -926,7 +926,7 @@
         <v>6.588395109224016</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>3.139520087554761</v>
+        <v>3.13952008755476</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>-35.19693599576009</v>
@@ -938,7 +938,7 @@
         <v>-4.005498781062789</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-5.713588336487524</v>
+        <v>-5.713588336487523</v>
       </c>
     </row>
     <row r="17">
@@ -949,22 +949,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.64367862956674</v>
+        <v>-3.855703346464825</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.520459288188104</v>
+        <v>-9.596680466163908</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-74.61061046441351</v>
+        <v>-69.75372893873744</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-68.61400132596171</v>
+        <v>-67.46293986071419</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-19.53490040345651</v>
+        <v>-18.3089889516065</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-20.96362543475469</v>
+        <v>-22.63772071918763</v>
       </c>
     </row>
     <row r="18">
@@ -975,22 +975,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>24.28873339811199</v>
+        <v>20.80023389456577</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.207753385555597</v>
+        <v>8.956303160809947</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-9.53083353808498</v>
+        <v>-8.855324715344796</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-2.896856832509586</v>
+        <v>-0.6346285761396762</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.434331896017735</v>
+        <v>9.533133090360465</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.112099676677496</v>
+        <v>3.652366135617303</v>
       </c>
     </row>
     <row r="19">
@@ -1004,7 +1004,7 @@
         <v>1.960020415609921</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.9339942982790456</v>
+        <v>0.9339942982790451</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-1</v>
@@ -1016,7 +1016,7 @@
         <v>-0.3338622096519818</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.4762331313343654</v>
+        <v>-0.4762331313343653</v>
       </c>
     </row>
     <row r="20">
@@ -1029,12 +1029,10 @@
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
-      <c r="F20" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.8654299735409442</v>
+        <v>-0.8606952640200497</v>
       </c>
     </row>
     <row r="21">
@@ -1047,12 +1045,10 @@
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
-      <c r="F21" s="6" t="n">
-        <v>-0.1452484539222976</v>
-      </c>
+      <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>1.360503969917426</v>
+        <v>1.261819131710818</v>
       </c>
     </row>
     <row r="22">
@@ -1082,7 +1078,7 @@
         <v>4.635835962145003</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.823355483221492</v>
+        <v>2.823355483221491</v>
       </c>
     </row>
     <row r="23">
@@ -1096,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4181743415181866</v>
+        <v>0.6818456399933995</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.862300633292501</v>
+        <v>1.927343761058937</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.397118257080373</v>
+        <v>1.400679696753251</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.437162509732636</v>
+        <v>1.334076638880646</v>
       </c>
     </row>
     <row r="24">
@@ -1119,22 +1115,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.1359347555871</v>
+        <v>13.41835883316929</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.874686420861468</v>
+        <v>4.618543075052036</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23.87171479392574</v>
+        <v>26.23305851129842</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.414125310718861</v>
+        <v>9.142410947792861</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.51308258039076</v>
+        <v>12.79524329676025</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.950247600538161</v>
+        <v>4.891270827641638</v>
       </c>
     </row>
     <row r="25">
@@ -1243,16 +1239,16 @@
       <c r="C29" s="5" t="inlineStr"/>
       <c r="D29" s="5" t="inlineStr"/>
       <c r="E29" s="5" t="n">
-        <v>-35.34545216426019</v>
+        <v>-34.7889999491</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-33.45728148083851</v>
+        <v>-32.46070331804145</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-26.92498517899197</v>
+        <v>-26.15817242542052</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-26.55194266835304</v>
+        <v>-26.92066389976282</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2030723885633857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1344,7 +1340,7 @@
         <v>4.33118569820911</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>-4.526675672744771</v>
+        <v>-4.52667567274477</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>4.33118569820911</v>
@@ -1363,16 +1359,16 @@
       <c r="C35" s="5" t="inlineStr"/>
       <c r="D35" s="5" t="inlineStr"/>
       <c r="E35" s="5" t="n">
-        <v>-14.05669669930208</v>
+        <v>-13.21084980253598</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-20.86720274281138</v>
+        <v>-21.96682645023708</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-14.05669669930208</v>
+        <v>-13.21084980253598</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-20.74775190884143</v>
+        <v>-22.90248694735603</v>
       </c>
     </row>
     <row r="36">
@@ -1385,16 +1381,16 @@
       <c r="C36" s="5" t="inlineStr"/>
       <c r="D36" s="5" t="inlineStr"/>
       <c r="E36" s="5" t="n">
-        <v>20.22470612403347</v>
+        <v>20.39160229466281</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.018394206872133</v>
+        <v>4.258620530032431</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>20.22470612403347</v>
+        <v>20.39160229466281</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.478447079698721</v>
+        <v>3.907129808984731</v>
       </c>
     </row>
     <row r="37">
@@ -1410,7 +1406,7 @@
         <v>0.5007825260659611</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>-0.5233855659931151</v>
+        <v>-0.523385565993115</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5007825260659611</v>
@@ -1428,17 +1424,13 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
-      <c r="E38" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.9236885152410775</v>
-      </c>
-      <c r="G38" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.9255271838944563</v>
+      </c>
+      <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="n">
-        <v>-0.9161290677716684</v>
+        <v>-0.9313892432620917</v>
       </c>
     </row>
     <row r="39">
@@ -1482,7 +1474,7 @@
         <v>-1.71850552238626</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-6.415317217249004</v>
+        <v>-6.415317217249003</v>
       </c>
     </row>
     <row r="41">
@@ -1493,22 +1485,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-9.480834524053082</v>
+        <v>-8.846999868800124</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-12.27252175482009</v>
+        <v>-12.76773814237081</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-17.30467334411164</v>
+        <v>-16.9421788711874</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-19.02077883866828</v>
+        <v>-20.04825360329288</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-9.096894834340539</v>
+        <v>-9.591724530097871</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-12.58610053138478</v>
+        <v>-12.46711390074815</v>
       </c>
     </row>
     <row r="42">
@@ -1519,22 +1511,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>10.28604832828523</v>
+        <v>9.817275721945924</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.396628296271052</v>
+        <v>3.281023737231038</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.053893734489458</v>
+        <v>4.343722552467219</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-2.078019309554243</v>
+        <v>-2.025011338187147</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.119846908825332</v>
+        <v>4.938042660740945</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-0.9708652778887787</v>
+        <v>-1.700084813453375</v>
       </c>
     </row>
     <row r="43">
@@ -1560,7 +1552,7 @@
         <v>-0.1142798910191089</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.4266158839118614</v>
+        <v>-0.4266158839118613</v>
       </c>
     </row>
     <row r="44">
@@ -1571,22 +1563,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4724853253957583</v>
+        <v>-0.4643835200195147</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5832164754851283</v>
+        <v>-0.5898117691756162</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.7108152792499725</v>
+        <v>-0.7198240970914505</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.7321145725640157</v>
+        <v>-0.7621706610217484</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.4607796211986863</v>
+        <v>-0.482755089253948</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.6098351756329277</v>
+        <v>-0.6105522875829967</v>
       </c>
     </row>
     <row r="45">
@@ -1597,22 +1589,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.455205101312373</v>
+        <v>1.257726859324704</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5306630777863726</v>
+        <v>0.4507444246138942</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.4983385269094301</v>
+        <v>0.421242157036455</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.2015271926000403</v>
+        <v>-0.2188505130681843</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.5396895347545476</v>
+        <v>0.4504614097384328</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.1022962789784125</v>
+        <v>-0.1514854187118652</v>
       </c>
     </row>
     <row r="46">
